--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes</t>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,24%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 26,35</t>
+          <t>6,43; 38,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 21,28</t>
+          <t>0,0; 21,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 29,52</t>
+          <t>11,99; 35,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,81; 32,62</t>
+          <t>13,08; 39,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 25,45</t>
+          <t>12,79; 30,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 22,84</t>
+          <t>8,5; 24,6</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>31,31%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 21,64</t>
+          <t>5,06; 27,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,51; 51,58</t>
+          <t>9,47; 66,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 34,95</t>
+          <t>17,66; 42,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,74; 35,44</t>
+          <t>15,32; 39,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 25,84</t>
+          <t>13,49; 31,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 38,3</t>
+          <t>18,4; 49,97</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>24,87%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,04; 43,57</t>
+          <t>15,07; 37,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,38; 31,56</t>
+          <t>16,61; 39,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,58; 33,21</t>
+          <t>16,49; 34,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,13; 30,09</t>
+          <t>16,78; 34,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 35,69</t>
+          <t>18,87; 33,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 27,68</t>
+          <t>18,66; 32,42</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 25,8</t>
+          <t>6,96; 22,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 17,66</t>
+          <t>2,6; 15,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 30,95</t>
+          <t>13,37; 28,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 26,02</t>
+          <t>16,46; 32,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 26,16</t>
+          <t>11,88; 22,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 20,71</t>
+          <t>11,37; 21,93</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>13,16%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,65; 26,81</t>
+          <t>11,49; 30,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,29</t>
+          <t>5,47; 21,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,12; 37,36</t>
+          <t>15,38; 39,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 24,43</t>
+          <t>7,84; 29,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,52; 29,11</t>
+          <t>15,39; 30,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 17,12</t>
+          <t>7,68; 19,54</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>23,47%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,8; 44,23</t>
+          <t>15,39; 42,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,48; 24,32</t>
+          <t>9,84; 36,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,63; 44,9</t>
+          <t>16,52; 45,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,28; 33,38</t>
+          <t>12,38; 41,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,24; 40,27</t>
+          <t>20,08; 39,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 26,03</t>
+          <t>15,41; 34,79</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>21,15%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,34; 26,01</t>
+          <t>14,99; 24,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,38; 21,86</t>
+          <t>11,88; 27,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,24; 29,53</t>
+          <t>20,65; 28,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,25; 24,61</t>
+          <t>19,77; 28,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,35; 26,35</t>
+          <t>19,33; 25,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 21,92</t>
+          <t>17,83; 25,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16264</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25939</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32945</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>42203</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36741</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5536; 33012</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23490</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14094; 41300</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17531; 52436</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26059; 61221</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20495; 59303</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19296</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60759</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39372</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43779</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58668</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>104537</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6929; 37586</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15975; 113038</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23548; 56030</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25300; 65891</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36433; 84329</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61430; 166818</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36519</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41759</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53057</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64218</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>89576</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>105977</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21063; 52971</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26917; 64124</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35513; 73931</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44322; 89781</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>67016; 117308</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>79503; 138152</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21732</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14610</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38024</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51585</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>59756</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66195</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11385; 36498</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4863; 28926</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25583; 53822</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35934; 72023</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42149; 80096</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46057; 88830</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26769</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17760</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26485</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18247</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>53254</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>36007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15959; 42524</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8613; 33703</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15915; 40724</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9105; 33971</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37311; 72974</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21021; 53459</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>23954</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22502</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>32260</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>35461</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>56214</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>57962</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13891; 38390</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10757; 39637</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17681; 48485</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17038; 57038</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>39617; 77645</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>38053; 85909</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>144534</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>161185</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>215137</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>246235</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>359671</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>407420</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>113224; 185753</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>105904; 247392</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>179223; 251417</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>204709; 290530</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>313769; 417143</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>343498; 499495</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>